--- a/terms/patellaTerms.xlsx
+++ b/terms/patellaTerms.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/meghanabalk/GitHub/futres/fovt/terms/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A707FF62-D863-2440-AB41-B08E0ED5FC3D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2F999614-BD44-284A-A623-9BB89073A0B3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="14400" yWindow="500" windowWidth="14400" windowHeight="8320" activeTab="3" xr2:uid="{631E2D37-1CD4-5D48-94F6-3BBC4A47110B}"/>
+    <workbookView xWindow="14400" yWindow="500" windowWidth="14400" windowHeight="8320" xr2:uid="{631E2D37-1CD4-5D48-94F6-3BBC4A47110B}"/>
   </bookViews>
   <sheets>
     <sheet name="trait" sheetId="1" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="40">
   <si>
     <t>FOVT STATUS</t>
   </si>
@@ -136,6 +136,18 @@
   </si>
   <si>
     <t>Reference</t>
+  </si>
+  <si>
+    <t>Y</t>
+  </si>
+  <si>
+    <t>length of patella</t>
+  </si>
+  <si>
+    <t>breadth of patella</t>
+  </si>
+  <si>
+    <t>in fovt</t>
   </si>
 </sst>
 </file>
@@ -503,8 +515,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{31E2E3B7-E96E-994B-9EAE-1F55837622D1}">
   <dimension ref="A1:H3"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -536,16 +548,34 @@
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>39</v>
+      </c>
+      <c r="B2" t="s">
+        <v>36</v>
+      </c>
       <c r="C2" t="s">
         <v>8</v>
       </c>
+      <c r="D2" t="s">
+        <v>37</v>
+      </c>
       <c r="F2" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>39</v>
+      </c>
+      <c r="B3" t="s">
+        <v>36</v>
+      </c>
       <c r="C3" t="s">
         <v>10</v>
+      </c>
+      <c r="D3" t="s">
+        <v>38</v>
       </c>
       <c r="F3" t="s">
         <v>11</v>
@@ -553,6 +583,7 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
 </file>
 
@@ -561,7 +592,7 @@
   <dimension ref="A1:D3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -643,7 +674,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{92D81AEA-EF85-2B49-8E52-F784DC5C53D4}">
   <dimension ref="A1:O1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection sqref="A1:XFD1"/>
     </sheetView>
   </sheetViews>

--- a/terms/patellaTerms.xlsx
+++ b/terms/patellaTerms.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/meghanabalk/GitHub/futres/fovt/terms/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2F999614-BD44-284A-A623-9BB89073A0B3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D25DBF4F-006C-0841-BE21-9D5C7CBF1F26}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="14400" yWindow="500" windowWidth="14400" windowHeight="8320" xr2:uid="{631E2D37-1CD4-5D48-94F6-3BBC4A47110B}"/>
   </bookViews>
@@ -516,7 +516,7 @@
   <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+      <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
